--- a/manipulator_x_description/doc/robotis_manipulator_x_gripper_model_mass_property.xlsx
+++ b/manipulator_x_description/doc/robotis_manipulator_x_gripper_model_mass_property.xlsx
@@ -114,13 +114,13 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="6.4"/>
+      <sz val="11"/>
       <color rgb="FF3C3C3C"/>
       <name val="Ubuntu"/>
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -289,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="111">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -526,20 +526,204 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1820,614 +2004,650 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="21.65"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="15" min="3" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="15" min="3" style="59" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="59" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+    </row>
+    <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="60"/>
+      <c r="B2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="Q2" s="2" t="n">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="Q2" s="61" t="n">
         <v>0.001</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+    <row r="3" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="60"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="61" t="n">
         <v>1E-009</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="13" t="n">
+    <row r="4" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60"/>
+      <c r="B4" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="73" t="n">
         <v>0.085809212</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="74" t="n">
         <v>0.000272371</v>
       </c>
-      <c r="E4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17" t="n">
+      <c r="E4" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="76" t="n">
         <v>0.017786005</v>
       </c>
-      <c r="G4" s="45" t="n">
+      <c r="G4" s="77" t="n">
         <v>1.3599316E-005</v>
       </c>
-      <c r="H4" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="46" t="n">
+      <c r="H4" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="78" t="n">
         <v>-2.1585266E-007</v>
       </c>
-      <c r="J4" s="46" t="n">
+      <c r="J4" s="78" t="n">
         <v>2.3517991E-005</v>
       </c>
-      <c r="K4" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="47" t="n">
+      <c r="K4" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="79" t="n">
         <v>2.0801772E-005</v>
       </c>
-      <c r="M4" s="21" t="n">
+      <c r="M4" s="80" t="n">
         <v>0.012</v>
       </c>
-      <c r="N4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="23" t="n">
+      <c r="N4" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="82" t="n">
         <v>0.034</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="13" t="n">
+    <row r="5" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60"/>
+      <c r="B5" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="83" t="n">
         <v>0.0079508877</v>
       </c>
-      <c r="D5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27" t="n">
+      <c r="D5" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="86" t="n">
         <v>0.0097458641</v>
       </c>
-      <c r="G5" s="48" t="n">
+      <c r="G5" s="87" t="n">
         <v>2.6531739E-006</v>
       </c>
-      <c r="H5" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="49" t="n">
+      <c r="H5" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="88" t="n">
         <v>1.0512515E-006</v>
       </c>
-      <c r="K5" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="50" t="n">
+      <c r="K5" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="89" t="n">
         <v>2.4601443E-006</v>
       </c>
-      <c r="M5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="32" t="n">
+      <c r="M5" s="90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="91" t="n">
         <v>-0.017</v>
       </c>
-      <c r="O5" s="33" t="n">
+      <c r="O5" s="92" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="13" t="n">
+    <row r="6" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="60"/>
+      <c r="B6" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="83" t="n">
         <v>0.21940858</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="84" t="n">
         <v>0.0053495553</v>
       </c>
-      <c r="E6" s="26" t="n">
+      <c r="E6" s="85" t="n">
         <v>0.016520648</v>
       </c>
-      <c r="F6" s="27" t="n">
+      <c r="F6" s="86" t="n">
         <v>0.05936739</v>
       </c>
-      <c r="G6" s="48" t="n">
+      <c r="G6" s="87" t="n">
         <v>0.00043395152</v>
       </c>
-      <c r="H6" s="49" t="n">
+      <c r="H6" s="88" t="n">
         <v>1.2766226E-007</v>
       </c>
-      <c r="I6" s="49" t="n">
+      <c r="I6" s="88" t="n">
         <v>-5.1294039E-005</v>
       </c>
-      <c r="J6" s="49" t="n">
+      <c r="J6" s="88" t="n">
         <v>0.00044404073</v>
       </c>
-      <c r="K6" s="49" t="n">
+      <c r="K6" s="88" t="n">
         <v>-1.7756255E-007</v>
       </c>
-      <c r="L6" s="50" t="n">
+      <c r="L6" s="89" t="n">
         <v>5.4150859E-005</v>
       </c>
-      <c r="M6" s="31" t="n">
+      <c r="M6" s="90" t="n">
         <v>0.024</v>
       </c>
-      <c r="N6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33" t="n">
+      <c r="N6" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="92" t="n">
         <v>0.1045</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="13" t="n">
+    <row r="7" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="60"/>
+      <c r="B7" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="n">
+      <c r="C7" s="83" t="n">
         <v>0.097458692</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="84" t="n">
         <v>0.042975851</v>
       </c>
-      <c r="E7" s="26" t="n">
+      <c r="E7" s="85" t="n">
         <v>0.017000002</v>
       </c>
-      <c r="F7" s="27" t="n">
+      <c r="F7" s="86" t="n">
         <v>0.011881107</v>
       </c>
-      <c r="G7" s="48" t="n">
+      <c r="G7" s="87" t="n">
         <v>2.5802457E-005</v>
       </c>
-      <c r="H7" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="49" t="n">
+      <c r="H7" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="88" t="n">
         <v>-1.4380091E-006</v>
       </c>
-      <c r="J7" s="49" t="n">
+      <c r="J7" s="88" t="n">
         <v>3.2033814E-005</v>
       </c>
-      <c r="K7" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="50" t="n">
+      <c r="K7" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="89" t="n">
         <v>2.2905623E-005</v>
       </c>
-      <c r="M7" s="31" t="n">
+      <c r="M7" s="90" t="n">
         <v>0.062</v>
       </c>
-      <c r="N7" s="32" t="n">
+      <c r="N7" s="91" t="n">
         <v>0.017</v>
       </c>
-      <c r="O7" s="33" t="n">
+      <c r="O7" s="92" t="n">
         <v>0.024</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="13" t="n">
+    <row r="8" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="60"/>
+      <c r="B8" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="83" t="n">
         <v>0.092256914</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="84" t="n">
         <v>0.02929484</v>
       </c>
-      <c r="E8" s="26" t="n">
+      <c r="E8" s="85" t="n">
         <v>-0.00056909045</v>
       </c>
-      <c r="F8" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="48" t="n">
+      <c r="F8" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="87" t="n">
         <v>1.5354294E-005</v>
       </c>
-      <c r="H8" s="49" t="n">
+      <c r="H8" s="88" t="n">
         <v>1.2410399E-007</v>
       </c>
-      <c r="I8" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="49" t="n">
+      <c r="I8" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="88" t="n">
         <v>2.4978515E-005</v>
       </c>
-      <c r="K8" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="50" t="n">
+      <c r="K8" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="89" t="n">
         <v>2.8652179E-005</v>
       </c>
-      <c r="M8" s="31" t="n">
+      <c r="M8" s="90" t="n">
         <v>0.0425</v>
       </c>
-      <c r="N8" s="32" t="n">
+      <c r="N8" s="91" t="n">
         <v>-0.017</v>
       </c>
-      <c r="O8" s="33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="n">
+      <c r="O8" s="92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="60"/>
+      <c r="B9" s="67" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="34" t="n">
+      <c r="C9" s="93" t="n">
         <v>0.097458692</v>
       </c>
-      <c r="D9" s="35" t="n">
+      <c r="D9" s="94" t="n">
         <v>0.042975851</v>
       </c>
-      <c r="E9" s="36" t="n">
+      <c r="E9" s="95" t="n">
         <v>0.017000001</v>
       </c>
-      <c r="F9" s="37" t="n">
+      <c r="F9" s="96" t="n">
         <v>0.011401479</v>
       </c>
-      <c r="G9" s="51" t="n">
+      <c r="G9" s="97" t="n">
         <v>2.5768922E-005</v>
       </c>
-      <c r="H9" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="52" t="n">
+      <c r="H9" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="98" t="n">
         <v>-8.749463E-007</v>
       </c>
-      <c r="J9" s="52" t="n">
+      <c r="J9" s="98" t="n">
         <v>3.2000279E-005</v>
       </c>
-      <c r="K9" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="53" t="n">
+      <c r="K9" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="99" t="n">
         <v>2.2905623E-005</v>
       </c>
-      <c r="M9" s="41" t="n">
+      <c r="M9" s="100" t="n">
         <v>0.062</v>
       </c>
-      <c r="N9" s="42" t="n">
+      <c r="N9" s="101" t="n">
         <v>0.017</v>
       </c>
-      <c r="O9" s="43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="n">
+      <c r="O9" s="102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60" t="n">
         <v>789</v>
       </c>
-      <c r="C10" s="44" t="n">
+      <c r="C10" s="103" t="n">
         <v>0.26120875</v>
       </c>
-      <c r="D10" s="44" t="n">
+      <c r="D10" s="103" t="n">
         <v>0.041969024</v>
       </c>
-      <c r="E10" s="44" t="n">
+      <c r="E10" s="103" t="n">
         <v>0.001457512</v>
       </c>
-      <c r="F10" s="44" t="n">
+      <c r="F10" s="103" t="n">
         <v>-0.00020824691</v>
       </c>
-      <c r="G10" s="44" t="n">
+      <c r="G10" s="103" t="n">
         <v>0.00019173299</v>
       </c>
-      <c r="H10" s="44" t="n">
+      <c r="H10" s="103" t="n">
         <v>5.4822011E-006</v>
       </c>
-      <c r="I10" s="44" t="n">
+      <c r="I10" s="103" t="n">
         <v>-7.3148779E-007</v>
       </c>
-      <c r="J10" s="44" t="n">
+      <c r="J10" s="103" t="n">
         <v>0.00021748011</v>
       </c>
-      <c r="K10" s="44" t="n">
+      <c r="K10" s="103" t="n">
         <v>1.2950472E-008</v>
       </c>
-      <c r="L10" s="44" t="n">
+      <c r="L10" s="103" t="n">
         <v>0.00028673887</v>
       </c>
-      <c r="M10" s="44" t="n">
+      <c r="M10" s="103" t="n">
         <v>0.141029</v>
       </c>
-      <c r="N10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="59" t="n">
+      <c r="N10" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="104" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="54" t="n">
+      <c r="C12" s="105" t="n">
         <v>0.1267958</v>
       </c>
-      <c r="D12" s="54" t="n">
+      <c r="D12" s="105" t="n">
         <v>0.027451299</v>
       </c>
-      <c r="E12" s="54" t="n">
+      <c r="E12" s="105" t="n">
         <v>0.0030025828</v>
       </c>
-      <c r="F12" s="54" t="n">
+      <c r="F12" s="105" t="n">
         <v>-0.00042900408</v>
       </c>
-      <c r="G12" s="60" t="n">
+      <c r="G12" s="106" t="n">
         <v>4.8969467E-005</v>
       </c>
-      <c r="H12" s="60" t="n">
+      <c r="H12" s="106" t="n">
         <v>-4.4913106E-008</v>
       </c>
-      <c r="I12" s="60" t="n">
+      <c r="I12" s="106" t="n">
         <v>5.8217173E-008</v>
       </c>
-      <c r="J12" s="60" t="n">
+      <c r="J12" s="106" t="n">
         <v>3.2610497E-005</v>
       </c>
-      <c r="K12" s="60" t="n">
+      <c r="K12" s="106" t="n">
         <v>1.0267086E-007</v>
       </c>
-      <c r="L12" s="60" t="n">
+      <c r="L12" s="106" t="n">
         <v>4.0076286E-005</v>
       </c>
-      <c r="M12" s="32" t="n">
+      <c r="M12" s="91" t="n">
         <v>0.029</v>
       </c>
-      <c r="N12" s="61" t="n">
+      <c r="N12" s="107" t="n">
         <v>-0.016</v>
       </c>
-      <c r="O12" s="32" t="n">
+      <c r="O12" s="91" t="n">
         <v>0.023</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="59" t="n">
+    <row r="13" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="104" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="54" t="n">
+      <c r="C13" s="105" t="n">
         <v>0.067206474</v>
       </c>
-      <c r="D13" s="54" t="n">
+      <c r="D13" s="105" t="n">
         <v>0.026664034</v>
       </c>
-      <c r="E13" s="54" t="n">
+      <c r="E13" s="105" t="n">
         <v>0.0090981881</v>
       </c>
-      <c r="F13" s="54" t="n">
+      <c r="F13" s="105" t="n">
         <v>-0.022999842</v>
       </c>
-      <c r="G13" s="60" t="n">
+      <c r="G13" s="106" t="n">
         <v>2.8747006E-005</v>
       </c>
-      <c r="H13" s="60" t="n">
+      <c r="H13" s="106" t="n">
         <v>5.9284508E-006</v>
       </c>
-      <c r="I13" s="60" t="n">
+      <c r="I13" s="106" t="n">
         <v>5.9731532E-008</v>
       </c>
-      <c r="J13" s="60" t="n">
+      <c r="J13" s="106" t="n">
         <v>6.6461991E-005</v>
       </c>
-      <c r="K13" s="60" t="n">
+      <c r="K13" s="106" t="n">
         <v>-8.6616279E-008</v>
       </c>
-      <c r="L13" s="60" t="n">
+      <c r="L13" s="106" t="n">
         <v>5.4735725E-005</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="59" t="n">
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+    </row>
+    <row r="14" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="104" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="54" t="n">
+      <c r="C14" s="105" t="n">
         <v>0.067206474</v>
       </c>
-      <c r="D14" s="54" t="n">
+      <c r="D14" s="105" t="n">
         <v>0.026664034</v>
       </c>
-      <c r="E14" s="54" t="n">
+      <c r="E14" s="105" t="n">
         <v>-0.0090981881</v>
       </c>
-      <c r="F14" s="54" t="n">
+      <c r="F14" s="105" t="n">
         <v>-0.023000158</v>
       </c>
-      <c r="G14" s="60" t="n">
+      <c r="G14" s="106" t="n">
         <v>2.8747006E-005</v>
       </c>
-      <c r="H14" s="60" t="n">
+      <c r="H14" s="106" t="n">
         <v>-5.9284508E-006</v>
       </c>
-      <c r="I14" s="60" t="n">
+      <c r="I14" s="106" t="n">
         <v>-5.9731532E-008</v>
       </c>
-      <c r="J14" s="60" t="n">
+      <c r="J14" s="106" t="n">
         <v>6.6461991E-005</v>
       </c>
-      <c r="K14" s="60" t="n">
+      <c r="K14" s="106" t="n">
         <v>-8.6616279E-008</v>
       </c>
-      <c r="L14" s="60" t="n">
+      <c r="L14" s="106" t="n">
         <v>5.4735725E-005</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-    </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-    </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-    </row>
-    <row r="18" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="63" t="s">
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+    </row>
+    <row r="15" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+    </row>
+    <row r="16" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+    </row>
+    <row r="17" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+    </row>
+    <row r="18" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="M18" s="59" t="n">
+        <f aca="false">D14-0.112</f>
+        <v>-0.085335966</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="54" t="n">
+      <c r="C19" s="105" t="n">
         <v>0.062</v>
       </c>
-      <c r="D19" s="54" t="n">
+      <c r="D19" s="105" t="n">
         <v>0.017</v>
       </c>
-      <c r="E19" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="64" t="s">
+      <c r="E19" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="108"/>
+    </row>
+    <row r="20" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="54" t="n">
+      <c r="C20" s="105" t="n">
         <v>0.029</v>
       </c>
-      <c r="D20" s="54" t="n">
+      <c r="D20" s="105" t="n">
         <v>0.016</v>
       </c>
-      <c r="E20" s="54" t="n">
+      <c r="E20" s="105" t="n">
         <v>0.023</v>
       </c>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="64" t="s">
+      <c r="F20" s="108"/>
+    </row>
+    <row r="21" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="54" t="n">
+      <c r="C21" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="105" t="n">
         <v>-0.032</v>
       </c>
-      <c r="E21" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="62"/>
+      <c r="E21" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="108"/>
+    </row>
+    <row r="22" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I22" s="59" t="n">
+        <f aca="false">D12-M12</f>
+        <v>-0.001548701</v>
+      </c>
+      <c r="J22" s="59" t="n">
+        <f aca="false">E12-N12</f>
+        <v>0.0190025828</v>
+      </c>
+      <c r="K22" s="59" t="n">
+        <f aca="false">F12-O12</f>
+        <v>-0.02342900408</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F26" s="59" t="n">
+        <f aca="false">C14*2</f>
+        <v>0.134412948</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F27" s="105"/>
+    </row>
+    <row r="28" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="59" t="n">
+        <v>89</v>
+      </c>
+      <c r="C28" s="105" t="n">
+        <f aca="false">C14*2</f>
+        <v>0.134412948</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
